--- a/generacion_excel/resultados_extraccion_noticias.xlsx
+++ b/generacion_excel/resultados_extraccion_noticias.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí, hombre</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -638,15 +638,15 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>9.140000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:02</t>
+          <t>2026-01-15 11:17:21</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02/2024</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,35 +727,35 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Arola Poch</t>
+          <t>Sí, hombre</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>¿Hasta dónde puede llegar la IA en el sexo? De cumplir fantasías a modificar deseos</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>periodismo de investigación</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>periodismo de investigación</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>IA y relaciones sexuales</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>7.76</v>
+        <v>7.08</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:12</t>
+          <t>2026-01-15 11:17:29</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -767,12 +767,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>María Porcel, Ver Biografía</t>
+          <t>María Porcel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>María Porcel, Ver Biografía</t>
+          <t>María Porcel</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -840,25 +840,25 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>6.48</v>
+        <v>5.87</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:19</t>
+          <t>2026-01-15 11:17:35</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -870,12 +870,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniel Soufi, Ver Biografía</t>
+          <t>Daniel Soufi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -950,40 +950,40 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Daniel Soufi, Ver Biografía</t>
+          <t>Daniel Soufi</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Daniel Soufi</t>
+          <t>Sí, hombre</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>¿Llegaremos a hablar con los animales?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>masculino</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>masculino</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>comunicacion_animal</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>6.32</v>
+        <v>6.48</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:28</t>
+          <t>2026-01-15 11:17:42</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí, hombre</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1080,25 +1080,25 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>7.33</v>
+        <v>6.65</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:37</t>
+          <t>2026-01-15 11:17:49</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1110,12 +1110,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isabel Rubio, Ver Biografía</t>
+          <t>Isabel Rubio</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Isabel Rubio, Ver Biografía</t>
+          <t>Isabel Rubio</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1203,15 +1203,15 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>7.45</v>
+        <v>5.17</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:47</t>
+          <t>2026-01-15 11:17:55</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04/2024</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1296,11 +1296,11 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>6.97</v>
+        <v>5.8</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2026-01-14 12:30:55</t>
+          <t>2026-01-15 11:18:02</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Junio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>María De Los Ángeles Serrano Moral</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1397,11 +1397,11 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>4.95</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2026-01-14 12:31:04</t>
+          <t>2026-01-15 11:18:09</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1496,15 +1496,15 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>6.97</v>
+        <v>5.82</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2026-01-14 12:31:12</t>
+          <t>2026-01-15 11:18:16</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1516,12 +1516,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Juan José Millás, Ver Biografía</t>
+          <t>Juan José Millás</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Junio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1560,40 +1560,40 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Juan José Millás, Ver Biografía</t>
+          <t>Juan José Millás</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>7.43</v>
+        <v>5.26</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2026-01-14 12:31:22</t>
+          <t>2026-01-15 11:18:25</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">

--- a/generacion_excel/resultados_extraccion_noticias.xlsx
+++ b/generacion_excel/resultados_extraccion_noticias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,17 +506,147 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>IA principal</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Significado IA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Menciona IA</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Referencias políticas igualdad</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Denuncia desigualdad género</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Presencia mujeres racializadas</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Presencia  mujeres discapacidad</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Presencia diversidad generacional</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Lenguaje sexista</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Masculino genérico</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Hombre humanidad</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Uso dual zorra</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No uso cargos mujeres</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Sexismo social</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Androcentrismo_</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Mujeres sin nombre</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Asimetría mujer hombre</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Infantilización mujeres</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Denominación sexualizada</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Denominación redundante</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Denominación dependiente</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Criterios excepción</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Comparación mujeres/hombres</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Tiene fuente</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Número declaraciones</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>TIEMPO_PROCESAMIENTO</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>TIMESTAMP</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>MODELO_LLM</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>ID_ORIGINAL</t>
         </is>
       </c>
     </row>
@@ -618,7 +748,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sí, hombre</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -628,31 +758,159 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>8.25</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2026-01-15 11:17:21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:50:40</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -727,7 +985,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Sí, hombre</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -747,21 +1005,149 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>7.08</v>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2026-01-15 11:17:29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:51:22</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -840,31 +1226,159 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>5.87</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2026-01-15 11:17:35</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN4" t="n">
+        <v>37.38</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:52:00</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -955,7 +1469,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Sí, hombre</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -965,31 +1479,159 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>6.48</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2026-01-15 11:17:42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:52:44</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1070,7 +1712,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sí, hombre</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1080,31 +1722,159 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>6.65</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2026-01-15 11:17:49</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN6" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:53:23</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1183,7 +1953,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1193,12 +1963,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1206,18 +1976,146 @@
           <t>15</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>5.17</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2026-01-15 11:17:55</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AN7" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:53:59</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1272,7 +2170,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1282,12 +2180,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1295,18 +2193,146 @@
           <t>12</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>5.8</v>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2026-01-15 11:18:02</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN8" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:54:32</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +2399,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1383,12 +2409,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1396,18 +2422,146 @@
           <t>1</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>4.95</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2026-01-15 11:18:09</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AN9" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:55:06</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1476,7 +2630,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1486,12 +2640,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1499,18 +2653,146 @@
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>5.82</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2026-01-15 11:18:16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN10" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:55:42</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1575,12 +2857,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1588,18 +2870,146 @@
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>5.26</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2026-01-15 11:18:25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>gemma3:4b</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN11" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:56:13</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>gemma3:12b</t>
+        </is>
+      </c>
+      <c r="AQ11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
